--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_70_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_70_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.6512628789332795, 2.3034336521780254]</t>
+          <t>[1.6456275186730855, 2.3090690124382194]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="O2" t="n">
         <v>0.5597632555945786</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.02540237904762499, 0.3245154199880358]</t>
+          <t>[-0.0254274055450463, 0.3245404464854571]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.09199704806341447</v>
+        <v>0.09204210570943916</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09199704806341447</v>
+        <v>0.09204210570943916</v>
       </c>
       <c r="W2" t="n">
         <v>20.53193193193229</v>
